--- a/data/pool/data.xlsx
+++ b/data/pool/data.xlsx
@@ -589,7 +589,7 @@
         <v>20:30</v>
       </c>
       <c r="L5" t="str">
-        <v/>
+        <v>7月第3火曜日～8月末日は全曜日利用可能</v>
       </c>
     </row>
     <row r="6">
